--- a/TestCases/Front End/MainPage-FrontEnd-TeamLead.xlsx
+++ b/TestCases/Front End/MainPage-FrontEnd-TeamLead.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{F2118D90-92F5-49F4-85AC-C532580D12CC}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{0EE169C9-1348-4A34-B783-100EC77E869C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="1DBA0DE22573E2FEE8F8C65F741F5A8146D3EDDE" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58.5" customHeight="1">
+    <row r="3" spans="1:6" ht="70.5" customHeight="1">
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>

--- a/TestCases/Front End/MainPage-FrontEnd-TeamLead.xlsx
+++ b/TestCases/Front End/MainPage-FrontEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="1DBA0DE22573E2FEE8F8C65F741F5A8146D3EDDE" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="1DBA0DE22573E2FEE8F8C65F741F5A8146D3EDDE" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{9C0731E4-95CA-477D-8315-C8D45BBBA698}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Role: Team Lead</t>
   </si>
@@ -41,7 +41,13 @@
     <t>You are redirected to the main page.The main page contains the following</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>A side nav with the following links: "My Assessments","My Team's Assessments", "My KPIs","My Team's KPIs", "My Team"</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
   <si>
     <t xml:space="preserve">In the Main Body there should be a Feed From yammer </t>
@@ -397,7 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -437,20 +445,32 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="70.5" customHeight="1">
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.5" customHeight="1">
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
